--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3018073.95264601</v>
+        <v>3093603.622310814</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>298.3654036477787</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>215.6285956664117</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.35002255071629</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>27.2661864549171</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>150.271542058071</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>296.4738938526975</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>85.87170836083672</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>115.2741345058928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>123.549265028247</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>32.34459158759308</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>35.85115782931148</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>46.94726885378638</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>228.9598970661019</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>171.2356833995605</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>81.90355835744664</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>132.4314103685626</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.11561436815781</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>101.1185891390118</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5.562624396424917</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>85.20934657025163</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002181</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>101.4950386131015</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>89.80526396562682</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.5440900052613</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,13 +3034,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>161.4046520073173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>82.9808704704261</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710092</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>221.7069481094547</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3797,16 +3799,16 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>117.1913264857211</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206835</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4031,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>89.60548601218929</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4361,19 +4363,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2170.551953897502</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2170.551953897502</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1780.41262192169</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.4549451025302</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C4" t="n">
-        <v>76.51876217462333</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>76.51876217462333</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>76.51876217462333</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>76.51876217462333</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>76.51876217462333</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="X4" t="n">
-        <v>245.4549451025302</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="Y4" t="n">
-        <v>245.4549451025302</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>770.1842990371763</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>770.1842990371763</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>770.1842990371763</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>359.1983942475687</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4601,16 +4603,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>641.3898848520539</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>641.3898848520539</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>641.3898848520539</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>641.3898848520539</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>641.3898848520539</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.94416071721</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="C8" t="n">
-        <v>1546.94416071721</v>
+        <v>1427.295673957378</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1069.029975350628</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1069.029975350628</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>658.0440705610204</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>240.0802624592072</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4814,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1796.25819089779</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.6060931634762</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="C10" t="n">
-        <v>396.6060931634762</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541695</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541695</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="X10" t="n">
-        <v>396.6060931634762</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="Y10" t="n">
-        <v>396.6060931634762</v>
+        <v>259.1560728187103</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5035,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5060,7 +5062,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
         <v>265.3924131404652</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>554.8095831774258</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>265.3924131404652</v>
+        <v>1214.875830352495</v>
       </c>
       <c r="X13" t="n">
-        <v>265.3924131404652</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.3924131404652</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5257,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,22 +5360,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>462.7283310300503</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1632.773754790661</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1912.313820009358</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.900558318119</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>441.900558318119</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>441.900558318119</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>441.900558318119</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>441.900558318119</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,49 +5439,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688032</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799324</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471151</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1254.072065737337</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1030.286650526843</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1030.286650526843</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>775.602162320956</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.900558318119</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5507,16 +5509,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,16 +5536,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5555,10 +5557,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227918</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V19" t="n">
-        <v>874.9271131227918</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W19" t="n">
-        <v>585.5099430858311</v>
+        <v>496.6650364395578</v>
       </c>
       <c r="X19" t="n">
-        <v>357.5203921878137</v>
+        <v>496.6650364395578</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.7278130442836</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5731,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5777,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211719</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011334</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.773754790662</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O21" t="n">
-        <v>2302.237516093321</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>102.8359039819272</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C22" t="n">
-        <v>102.8359039819272</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D22" t="n">
-        <v>102.8359039819272</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E22" t="n">
-        <v>102.8359039819272</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F22" t="n">
-        <v>102.8359039819272</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>102.8359039819272</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U22" t="n">
-        <v>874.927113122792</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169051</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W22" t="n">
-        <v>330.8254548799445</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="X22" t="n">
-        <v>102.8359039819272</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y22" t="n">
-        <v>102.8359039819272</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5968,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,7 +5989,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,22 +6071,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>498.905640096559</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030231</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>2032.925401907738</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>2312.465467126435</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2517.487947908644</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3695.64344940939</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3695.64344940939</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3695.64344940939</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3695.64344940939</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3695.64344940939</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>4326.074044281177</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>4326.074044281177</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>4326.074044281177</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>4098.084493383159</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y25" t="n">
-        <v>3877.291914239629</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>199.7373324836207</v>
+        <v>654.1345339792616</v>
       </c>
       <c r="C28" t="n">
-        <v>199.7373324836207</v>
+        <v>654.1345339792616</v>
       </c>
       <c r="D28" t="n">
-        <v>199.7373324836207</v>
+        <v>504.0178945669259</v>
       </c>
       <c r="E28" t="n">
-        <v>199.7373324836207</v>
+        <v>356.1048009845327</v>
       </c>
       <c r="F28" t="n">
-        <v>199.7373324836207</v>
+        <v>356.1048009845327</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>187.9294793043534</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>187.9294793043534</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488384</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V28" t="n">
-        <v>898.7925182488384</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W28" t="n">
-        <v>609.3753482118777</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X28" t="n">
-        <v>381.3857973138604</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="Y28" t="n">
-        <v>381.3857973138604</v>
+        <v>654.1345339792616</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6464,16 +6466,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>462.7283310300498</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>709.4934589365139</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.813592216476</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880508</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1395.336381663699</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1395.336381663699</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1395.336381663699</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1395.336381663699</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1395.336381663699</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1105.919211626738</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>877.929660728721</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>877.929660728721</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1335.881268530309</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T34" t="n">
-        <v>1112.095853319815</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U34" t="n">
-        <v>822.9672145333731</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V34" t="n">
-        <v>568.2827263274862</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W34" t="n">
-        <v>278.8655562905255</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="X34" t="n">
-        <v>278.8655562905255</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>3603.918850690061</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1215.177199392216</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1215.177199392216</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1215.177199392216</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>1215.177199392216</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>987.1876484941987</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>766.3950693506686</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,34 +7159,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,7 +7198,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1051.184443115636</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>796.4999549097488</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>507.0827848727882</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7406,55 +7408,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>1069.546079776976</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>339.7502131046251</v>
+        <v>485.4047026089406</v>
       </c>
       <c r="L45" t="n">
-        <v>953.6472828615138</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>506.3210135240263</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C46" t="n">
-        <v>506.3210135240263</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D46" t="n">
-        <v>506.3210135240263</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E46" t="n">
-        <v>506.3210135240263</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>955.1031435655738</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>727.1135926675564</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.3210135240263</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>213.2603911806637</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>15.83804904622903</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>29.47535963978262</v>
+        <v>73.5320452467011</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025339</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.14409596997011</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>50.62661940943616</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>87.16935584025424</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10674,19 +10676,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>87.16935584025424</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>52.49733361305232</v>
+        <v>73.53204524669951</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>23.17774625772608</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>115.2873149370305</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>84.59001010593094</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>65.48939961504067</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.7163658137795</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>117.4660642130829</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>143.3512039711112</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>81.28422189312596</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>64.99852985027609</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>20.61398149864517</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>7.420262398531491</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>36.51615797628585</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25123,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>36.51615797628597</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>138.5666905879631</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>64.53040428912263</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>134.9463168381069</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26032,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>55.81556201074196</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670788</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="G2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="H2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803339</v>
       </c>
       <c r="J2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.495580334</v>
       </c>
       <c r="L2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="O2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="N2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.4955803343</v>
-      </c>
       <c r="P2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803341</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007539</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007523</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>7916.731656007485</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007482</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007536</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="M4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7916.731656007525</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007362</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007467</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007462</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163910.5901024484</v>
+        <v>-163910.5901024485</v>
       </c>
       <c r="C6" t="n">
-        <v>426057.2891120962</v>
+        <v>426057.2891120965</v>
       </c>
       <c r="D6" t="n">
         <v>426057.2891120962</v>
       </c>
       <c r="E6" t="n">
-        <v>582.4014987138798</v>
+        <v>582.4014987138362</v>
       </c>
       <c r="F6" t="n">
         <v>525742.43797561</v>
       </c>
       <c r="G6" t="n">
+        <v>525742.4379756099</v>
+      </c>
+      <c r="H6" t="n">
+        <v>525742.4379756098</v>
+      </c>
+      <c r="I6" t="n">
+        <v>525742.4379756099</v>
+      </c>
+      <c r="J6" t="n">
+        <v>349319.2187830172</v>
+      </c>
+      <c r="K6" t="n">
+        <v>525742.4379756099</v>
+      </c>
+      <c r="L6" t="n">
+        <v>525742.4379756101</v>
+      </c>
+      <c r="M6" t="n">
+        <v>390941.422741773</v>
+      </c>
+      <c r="N6" t="n">
         <v>525742.43797561</v>
       </c>
-      <c r="H6" t="n">
-        <v>525742.4379756101</v>
-      </c>
-      <c r="I6" t="n">
-        <v>525742.4379756098</v>
-      </c>
-      <c r="J6" t="n">
-        <v>349319.2187830171</v>
-      </c>
-      <c r="K6" t="n">
-        <v>525742.4379756103</v>
-      </c>
-      <c r="L6" t="n">
-        <v>525742.43797561</v>
-      </c>
-      <c r="M6" t="n">
-        <v>390941.4227417727</v>
-      </c>
-      <c r="N6" t="n">
-        <v>525742.4379756104</v>
-      </c>
       <c r="O6" t="n">
-        <v>525742.4379756103</v>
+        <v>525742.4379756099</v>
       </c>
       <c r="P6" t="n">
-        <v>525742.4379756104</v>
+        <v>525742.4379756099</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>66.9074881232288</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>133.6123730510013</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27554,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>133.8208662910789</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>259.2568118816739</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>263.512627962724</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>73.2572068257715</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>60.79348361932111</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>171.2488638306982</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>231.1337765924359</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>291.5781811767641</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>112.7643151889009</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>178.7623865352508</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28509,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30460,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32233,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>327.2930933377847</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>420.3538061121883</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299066</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>222.9314639777537</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>236.5687745713073</v>
+        <v>280.6254601782257</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>237.7447944281927</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.1571287550442</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>201.2020579973754</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>294.2627707717789</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,19 +37393,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>294.2627707717789</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,19 +37867,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>203.0727722009916</v>
+        <v>224.1074838346388</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3093603.622310814</v>
+        <v>3086586.607419104</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>298.3654036477787</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>32.7219002833866</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>133.9566202902064</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>27.2661864549171</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>266.3191370776132</v>
       </c>
       <c r="X5" t="n">
-        <v>296.4738938526975</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>85.87170836083672</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>32.34459158759308</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>326.5032091220842</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>35.85115782931148</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>106.2501394820233</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>171.2356833995605</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>132.4314103685626</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>191.6534898356759</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>101.1185891390118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896931</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>55.04412829816504</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>89.80526396562682</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.5440900052613</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>221.7069481094547</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
-        <v>117.1913264857211</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>157.0171567692667</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2255.520561484594</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2609.067977020042</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2609.067977020042</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2355.306191658134</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,10 +4406,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4430,22 +4430,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.7922583306645</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>552.4407231609042</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>552.4407231609042</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>552.4407231609042</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4603,16 +4603,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="X5" t="n">
-        <v>1658.820279285841</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y5" t="n">
-        <v>1268.68094731003</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>641.3898848520539</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>641.3898848520539</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>641.3898848520539</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>641.3898848520539</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>641.3898848520539</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.25819089779</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="C8" t="n">
-        <v>1427.295673957378</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D8" t="n">
-        <v>1069.029975350628</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E8" t="n">
-        <v>1069.029975350628</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>658.0440705610204</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>240.0802624592072</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4810,46 +4810,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>1782.523196977305</v>
       </c>
       <c r="X8" t="n">
-        <v>1796.25819089779</v>
+        <v>1409.057438716225</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.25819089779</v>
+        <v>1018.918106740413</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4928,7 +4928,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>259.1560728187103</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>259.1560728187103</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4989,25 +4989,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,49 +5026,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.4452354807079</v>
+        <v>352.453558256844</v>
       </c>
       <c r="C13" t="n">
-        <v>415.509052552801</v>
+        <v>352.453558256844</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688136</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.497233179943</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471258</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974673</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298007</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585753</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557909</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557909</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473461</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473461</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473461</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>1044.311772267574</v>
       </c>
       <c r="W13" t="n">
-        <v>1214.875830352495</v>
+        <v>754.8946022306138</v>
       </c>
       <c r="X13" t="n">
-        <v>986.8862794544777</v>
+        <v>754.8946022306138</v>
       </c>
       <c r="Y13" t="n">
-        <v>766.0937003109476</v>
+        <v>534.1020230870837</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790661</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1912.313820009358</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688032</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799324</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471151</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1254.072065737337</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1030.286650526843</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U16" t="n">
-        <v>1030.286650526843</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V16" t="n">
-        <v>775.602162320956</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W16" t="n">
-        <v>486.1849922839954</v>
+        <v>472.0965898562136</v>
       </c>
       <c r="X16" t="n">
-        <v>486.1849922839954</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581963</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5509,58 +5509,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765184</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765184</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>496.6650364395578</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>496.6650364395578</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211719</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011334</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.020508932908</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>3893.336020727022</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>3603.918850690061</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>498.905640096559</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>745.6707680030231</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3815454271734</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2649060148376</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>264.3518124324445</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>264.3518124324445</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6180,19 +6180,19 @@
         <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181194</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201021</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3177283550802</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>485.4047026089419</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>654.1345339792616</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>654.1345339792616</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>504.0178945669259</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>356.1048009845327</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>356.1048009845327</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>187.9294793043534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>187.9294793043534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>874.9271131227918</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W28" t="n">
-        <v>874.9271131227918</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X28" t="n">
-        <v>874.9271131227918</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y28" t="n">
-        <v>654.1345339792616</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,31 +6478,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1395.336381663699</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1395.336381663699</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1395.336381663699</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1395.336381663699</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1395.336381663699</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.919211626738</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>877.929660728721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>877.929660728721</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6685,49 +6685,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.020508932908</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>3893.336020727022</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>3603.918850690061</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.918850690061</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>3603.918850690061</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7125,7 +7125,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
         <v>1090.100879744681</v>
@@ -7165,10 +7165,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028562</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1051.184443115636</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>796.4999549097488</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>507.0827848727882</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7396,64 +7396,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.373105721172</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>1069.546079776976</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>780.1289097400152</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>780.1289097400152</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>559.336330596485</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805471</v>
@@ -7645,55 +7645,55 @@
         <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>485.4047026089406</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>732.1698305154048</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028583</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028583</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028583</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028583</v>
+        <v>517.7728799462201</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028583</v>
+        <v>517.7728799462201</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028583</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028583</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>213.2603911806637</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776759</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>73.5320452467011</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>87.16935584025339</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>87.16935584025424</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>87.16935584025424</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>73.53204524670059</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>73.53204524669951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>42.36533353618904</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,13 +23475,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>115.2873149370305</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>65.48939961504067</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>29.89407122271336</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>117.4660642130829</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>111.4494401652125</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518767</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542474</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>20.61398149864517</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.420262398531491</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.51615797628585</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>64.53040428912263</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
-        <v>134.9463168381069</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>9.47641169411088</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>750084.1514670788</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="11">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="F2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803339</v>
-      </c>
       <c r="G2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803338</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="H2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
         <v>625646.495580334</v>
@@ -26346,16 +26346,16 @@
         <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="P2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625646.4955803341</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.03523461802979e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925928</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26429,37 +26429,37 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.73165600741</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007416</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007539</v>
+        <v>7916.73165600741</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="M4" t="n">
         <v>7916.731656007485</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="N4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="O4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007486</v>
       </c>
     </row>
     <row r="5">
@@ -26469,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163910.5901024485</v>
+        <v>-163910.5901024481</v>
       </c>
       <c r="C6" t="n">
-        <v>426057.2891120965</v>
+        <v>426057.2891120961</v>
       </c>
       <c r="D6" t="n">
         <v>426057.2891120962</v>
       </c>
       <c r="E6" t="n">
-        <v>582.4014987138362</v>
+        <v>-392.1897610082967</v>
       </c>
       <c r="F6" t="n">
-        <v>525742.43797561</v>
+        <v>524767.8467158885</v>
       </c>
       <c r="G6" t="n">
-        <v>525742.4379756099</v>
+        <v>524767.8467158885</v>
       </c>
       <c r="H6" t="n">
-        <v>525742.4379756098</v>
+        <v>524767.846715888</v>
       </c>
       <c r="I6" t="n">
-        <v>525742.4379756099</v>
+        <v>524767.8467158882</v>
       </c>
       <c r="J6" t="n">
-        <v>349319.2187830172</v>
+        <v>348344.6275232957</v>
       </c>
       <c r="K6" t="n">
-        <v>525742.4379756099</v>
+        <v>524767.8467158882</v>
       </c>
       <c r="L6" t="n">
-        <v>525742.4379756101</v>
+        <v>524767.8467158887</v>
       </c>
       <c r="M6" t="n">
-        <v>390941.422741773</v>
+        <v>389966.8314820513</v>
       </c>
       <c r="N6" t="n">
-        <v>525742.43797561</v>
+        <v>524767.8467158886</v>
       </c>
       <c r="O6" t="n">
-        <v>525742.4379756099</v>
+        <v>524767.8467158881</v>
       </c>
       <c r="P6" t="n">
-        <v>525742.4379756099</v>
+        <v>524767.8467158885</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,25 +26746,25 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.287272754555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>66.9074881232288</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>141.6938125255849</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>14.65885272800591</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>259.2568118816739</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>82.92183163979985</v>
       </c>
       <c r="X5" t="n">
-        <v>73.2572068257715</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>60.79348361932111</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>291.5781811767641</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>22.73775959532878</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946056</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>112.7643151889009</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>6.41004286687045e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3926104730631</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.702428529917</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>420.3538061121883</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299066</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>280.6254601782257</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>237.7447944281927</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>294.2627707717789</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37159,19 +37159,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37317,7 +37317,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>294.2627707717789</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37633,19 +37633,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37870,13 +37870,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>280.6254601782252</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>224.1074838346388</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3086586.607419104</v>
+        <v>3091525.870268136</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>103.528048749137</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
-        <v>32.7219002833866</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>133.9566202902064</v>
+        <v>39.58626266897647</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481157</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>5.983388191321405</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>266.3191370776132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250814</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229324</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.3159054168632</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>343.7980495169041</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>326.5032091220842</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.52687838733165</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>106.2501394820233</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>12.68762643336769</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498026</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>191.6534898356759</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896931</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>118.4898845065125</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750042</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.04412829816504</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113155</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385044</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.4898845065126</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>71.26586356860319</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151922</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634828</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>157.0171567692667</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>28.76403713020138</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.643464250441</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2609.067977020042</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2609.067977020042</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2355.306191658134</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V2" t="n">
-        <v>2024.243304314563</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W2" t="n">
-        <v>2024.243304314563</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X2" t="n">
-        <v>2024.243304314563</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="Y2" t="n">
-        <v>2024.243304314563</v>
+        <v>2212.181128500978</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>546.4805193761948</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>546.4805193761948</v>
       </c>
       <c r="D4" t="n">
-        <v>563.4023475952011</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>433.0775852377276</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097707</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097707</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.8663858817736</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533145</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733134</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224086</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018225</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548718</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W5" t="n">
-        <v>2373.111172177389</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X5" t="n">
-        <v>1999.645413916309</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.506081940498</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615932</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572653</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>351.9727148150934</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866328</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477913</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658214</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502506</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594909</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632.3182666762915</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762915</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>1281.586091536707</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>895.797838938463</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.523196977305</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1409.057438716225</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.918106740413</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4928,7 +4928,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5071,22 +5071,22 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>352.453558256844</v>
+        <v>110.0328757364149</v>
       </c>
       <c r="C13" t="n">
-        <v>352.453558256844</v>
+        <v>110.0328757364149</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>110.0328757364149</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>110.0328757364149</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028589</v>
@@ -5202,49 +5202,49 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688136</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.497233179943</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471258</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974673</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.48306298007</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585753</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557909</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473461</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473461</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267574</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="W13" t="n">
-        <v>754.8946022306138</v>
+        <v>330.825454879945</v>
       </c>
       <c r="X13" t="n">
-        <v>754.8946022306138</v>
+        <v>330.825454879945</v>
       </c>
       <c r="Y13" t="n">
-        <v>534.1020230870837</v>
+        <v>110.0328757364149</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5299,16 +5299,16 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1305.326886885503</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1016.198248099061</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>761.5137598931742</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>472.0965898562136</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5776,28 +5776,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028589</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028589</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>731.3177283550802</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3815454271734</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2649060148376</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>264.3518124324445</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>264.3518124324445</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609671</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550802</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>731.3177283550802</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>731.3177283550802</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>731.3177283550802</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155868</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805448</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="27">
@@ -6293,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655742</v>
+        <v>1426.930549781536</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286137</v>
+        <v>1137.513379744575</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305963</v>
+        <v>909.523828846558</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.9038434870662</v>
+        <v>688.7312497030279</v>
       </c>
     </row>
     <row r="29">
@@ -6442,67 +6442,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6533,31 +6533,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,19 +6639,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
         <v>869.3083006011506</v>
@@ -6663,10 +6663,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7125,7 +7125,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
         <v>1090.100879744681</v>
@@ -7153,73 +7153,73 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7365,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7414,22 +7414,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>665.6859735286132</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C46" t="n">
-        <v>665.6859735286132</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="D46" t="n">
-        <v>665.6859735286132</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="E46" t="n">
-        <v>517.7728799462201</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="F46" t="n">
-        <v>517.7728799462201</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>276.6896828721419</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>126.2716744200852</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286132</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.6859735286132</v>
+        <v>795.449652310468</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516206</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.7176547498441</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776741</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776741</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>42.36533353618904</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>132.7334215895636</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>29.89407122271336</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542477</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338503</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>111.4494401652125</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.34209567542474</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>180.8717797552248</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338511</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25842,10 +25842,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>9.47641169411088</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.65520833407061</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670785</v>
       </c>
     </row>
     <row r="11">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803344</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="G2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803338</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="K2" t="n">
         <v>625646.495580334</v>
@@ -26346,16 +26346,16 @@
         <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.495580334</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.495580334</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.495580334</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03523461802979e-10</v>
+        <v>5.092476549179992e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="C4" t="n">
+        <v>147917.0487159207</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159209</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147917.0487159208</v>
-      </c>
-      <c r="D4" t="n">
-        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.73165600741</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007416</v>
+        <v>7916.731656007436</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.73165600741</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.73165600735</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="M4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="N4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.73165600738</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82859.07806340951</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163910.5901024481</v>
+        <v>-163910.5901024487</v>
       </c>
       <c r="C6" t="n">
-        <v>426057.2891120961</v>
+        <v>426057.2891120956</v>
       </c>
       <c r="D6" t="n">
-        <v>426057.2891120962</v>
+        <v>426057.2891120968</v>
       </c>
       <c r="E6" t="n">
-        <v>-392.1897610082967</v>
+        <v>484.9423727416432</v>
       </c>
       <c r="F6" t="n">
-        <v>524767.8467158885</v>
+        <v>525644.978849638</v>
       </c>
       <c r="G6" t="n">
-        <v>524767.8467158885</v>
+        <v>525644.978849638</v>
       </c>
       <c r="H6" t="n">
-        <v>524767.846715888</v>
+        <v>525644.9788496381</v>
       </c>
       <c r="I6" t="n">
-        <v>524767.8467158882</v>
+        <v>525644.9788496381</v>
       </c>
       <c r="J6" t="n">
-        <v>348344.6275232957</v>
+        <v>349221.7596570448</v>
       </c>
       <c r="K6" t="n">
-        <v>524767.8467158882</v>
+        <v>525644.9788496379</v>
       </c>
       <c r="L6" t="n">
-        <v>524767.8467158887</v>
+        <v>525644.978849638</v>
       </c>
       <c r="M6" t="n">
-        <v>389966.8314820513</v>
+        <v>390843.9636158005</v>
       </c>
       <c r="N6" t="n">
-        <v>524767.8467158886</v>
+        <v>525644.978849638</v>
       </c>
       <c r="O6" t="n">
-        <v>524767.8467158881</v>
+        <v>525644.9788496378</v>
       </c>
       <c r="P6" t="n">
-        <v>524767.8467158885</v>
+        <v>525644.9788496378</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170872</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26749,22 +26749,22 @@
         <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545562</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>261.7448430218706</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>141.6938125255849</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>14.65885272800591</v>
+        <v>109.0292103492359</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>168.4323246176501</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,10 +27675,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>82.92183163979985</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853693</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491422</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352316</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>63.07799622480735</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>22.73775959532878</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.3051017946056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>6.41004286687045e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29274,10 +29274,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29289,13 +29289,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-2.52100192090846e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-6.020149039547479e-14</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-8.343246004669601e-14</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340048</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141002</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554475</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727438</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630673</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405371</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338308</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119869</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.371903895467</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.988205504414</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633811</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727388</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473563</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472038</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141122</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188926</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890693</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396487</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649104</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.416982047801</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983125</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736703</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.315665592305</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.152864647958</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639067</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034989</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131475</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.27496629637267</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061916</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078621</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644451</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492008</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813584</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302251</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175858</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383812</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678017</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701168</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197228</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315616</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32010,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32031,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32159,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32171,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32557,19 +32557,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32578,13 +32578,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32958,13 +32958,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32979,7 +32979,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33034,7 +33034,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33107,10 +33107,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33119,7 +33119,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,13 +33131,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307151</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343422</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435305</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060969</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.895655249224</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530455</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116801</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898692</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770702</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.82557620313</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279148</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338905</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245901</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137343</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713965</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850087</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458882</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557983</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873161</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058686</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504664</v>
@@ -35503,16 +35503,16 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523304</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.702428529917</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799286</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35658,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
@@ -35974,19 +35974,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091989</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,19 +36287,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091989</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36606,19 +36606,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
@@ -36685,19 +36685,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
